--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H2">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N2">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O2">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P2">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q2">
-        <v>111.2282724087289</v>
+        <v>0.9642772083377776</v>
       </c>
       <c r="R2">
-        <v>1001.05445167856</v>
+        <v>8.678494875039998</v>
       </c>
       <c r="S2">
-        <v>0.2393220472387557</v>
+        <v>0.01243065654668016</v>
       </c>
       <c r="T2">
-        <v>0.2393220472387557</v>
+        <v>0.01243065654668015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H3">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P3">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q3">
-        <v>188.8274191773578</v>
+        <v>9.186778335745776</v>
       </c>
       <c r="R3">
-        <v>1699.44677259622</v>
+        <v>82.681005021712</v>
       </c>
       <c r="S3">
-        <v>0.4062866711286752</v>
+        <v>0.118428274851577</v>
       </c>
       <c r="T3">
-        <v>0.4062866711286753</v>
+        <v>0.118428274851577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H4">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P4">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q4">
-        <v>81.22393277384445</v>
+        <v>3.951683866684444</v>
       </c>
       <c r="R4">
-        <v>731.0153949646001</v>
+        <v>35.56515480015999</v>
       </c>
       <c r="S4">
-        <v>0.1747638208816953</v>
+        <v>0.05094180854122639</v>
       </c>
       <c r="T4">
-        <v>0.1747638208816954</v>
+        <v>0.05094180854122639</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.256445</v>
       </c>
       <c r="I5">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J5">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N5">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O5">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P5">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q5">
-        <v>22.90294819607556</v>
+        <v>4.081125223161111</v>
       </c>
       <c r="R5">
-        <v>206.12653376468</v>
+        <v>36.73012700845</v>
       </c>
       <c r="S5">
-        <v>0.04927866208284126</v>
+        <v>0.05261045841844532</v>
       </c>
       <c r="T5">
-        <v>0.04927866208284126</v>
+        <v>0.05261045841844531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.256445</v>
       </c>
       <c r="I6">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J6">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P6">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q6">
         <v>38.88134289747611</v>
@@ -818,10 +818,10 @@
         <v>349.932086077285</v>
       </c>
       <c r="S6">
-        <v>0.08365824965277255</v>
+        <v>0.5012258046266346</v>
       </c>
       <c r="T6">
-        <v>0.08365824965277255</v>
+        <v>0.5012258046266345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.256445</v>
       </c>
       <c r="I7">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J7">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P7">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q7">
         <v>16.72477225722778</v>
@@ -880,10 +880,10 @@
         <v>150.52295031505</v>
       </c>
       <c r="S7">
-        <v>0.03598551563844646</v>
+        <v>0.2156017978579223</v>
       </c>
       <c r="T7">
-        <v>0.03598551563844646</v>
+        <v>0.2156017978579222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H8">
         <v>0.206369</v>
       </c>
       <c r="I8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.09934133333334</v>
+        <v>3.759736666666667</v>
       </c>
       <c r="N8">
-        <v>63.29802400000001</v>
+        <v>11.27921</v>
       </c>
       <c r="O8">
-        <v>0.2917236204149438</v>
+        <v>0.0683751702595819</v>
       </c>
       <c r="P8">
-        <v>0.2917236204149438</v>
+        <v>0.06837517025958188</v>
       </c>
       <c r="Q8">
-        <v>1.451416657206222</v>
+        <v>0.2586310320544444</v>
       </c>
       <c r="R8">
-        <v>13.062749914856</v>
+        <v>2.32767928849</v>
       </c>
       <c r="S8">
-        <v>0.003122911093346845</v>
+        <v>0.003334055294456421</v>
       </c>
       <c r="T8">
-        <v>0.003122911093346846</v>
+        <v>0.003334055294456421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H9">
         <v>0.206369</v>
       </c>
       <c r="I9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294648</v>
       </c>
       <c r="P9">
-        <v>0.4952465516465762</v>
+        <v>0.6514180024294647</v>
       </c>
       <c r="Q9">
         <v>2.464007177277444</v>
@@ -1004,10 +1004,10 @@
         <v>22.176064595497</v>
       </c>
       <c r="S9">
-        <v>0.005301630865128388</v>
+        <v>0.03176392295125326</v>
       </c>
       <c r="T9">
-        <v>0.005301630865128389</v>
+        <v>0.03176392295125326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H10">
         <v>0.206369</v>
       </c>
       <c r="I10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="P10">
-        <v>0.2130298279384801</v>
+        <v>0.2802068273109533</v>
       </c>
       <c r="Q10">
         <v>1.059890317801111</v>
@@ -1066,10 +1066,10 @@
         <v>9.539012860209999</v>
       </c>
       <c r="S10">
-        <v>0.002280491418338266</v>
+        <v>0.01366322091180461</v>
       </c>
       <c r="T10">
-        <v>0.002280491418338266</v>
+        <v>0.01366322091180461</v>
       </c>
     </row>
   </sheetData>
